--- a/src/Components/first100.xlsx
+++ b/src/Components/first100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSHIBA\Desktop\Mariachi\detencion-int\src\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365BA5F0-6A3B-4B1C-9277-66CB650C40CF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E3893D-6B39-4B64-A08F-876D54DF45E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{A8DCCEB3-4C7D-44B2-BA0A-987CB694421D}"/>
   </bookViews>
@@ -1026,15 +1026,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6AA6D3-8C18-4579-B598-345B4E6F66FC}">
   <dimension ref="A1:AK101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="44.5703125" customWidth="1"/>
-    <col min="23" max="23" width="39" customWidth="1"/>
-    <col min="27" max="27" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="62.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="56.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="28.5703125" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="17" max="17" width="46.7109375" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" customWidth="1"/>
+    <col min="23" max="23" width="44.140625" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" customWidth="1"/>
+    <col min="25" max="25" width="8.5703125" customWidth="1"/>
+    <col min="26" max="26" width="8.42578125" customWidth="1"/>
+    <col min="27" max="27" width="86.7109375" customWidth="1"/>
     <col min="33" max="33" width="28.7109375" customWidth="1"/>
     <col min="34" max="34" width="27.28515625" customWidth="1"/>
     <col min="35" max="35" width="22" customWidth="1"/>

--- a/src/Components/first100.xlsx
+++ b/src/Components/first100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSHIBA\Desktop\Mariachi\detencion-int\src\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E3893D-6B39-4B64-A08F-876D54DF45E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACF855B-6ABC-420D-B4EE-4946775A485E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{A8DCCEB3-4C7D-44B2-BA0A-987CB694421D}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{A8DCCEB3-4C7D-44B2-BA0A-987CB694421D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6AA6D3-8C18-4579-B598-345B4E6F66FC}">
   <dimension ref="A1:AK101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA1" activeCellId="1" sqref="W1:W1048576 AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,7 @@
     <col min="23" max="23" width="44.140625" customWidth="1"/>
     <col min="24" max="24" width="23.42578125" customWidth="1"/>
     <col min="25" max="25" width="8.5703125" customWidth="1"/>
-    <col min="26" max="26" width="8.42578125" customWidth="1"/>
+    <col min="26" max="26" width="17.140625" customWidth="1"/>
     <col min="27" max="27" width="86.7109375" customWidth="1"/>
     <col min="33" max="33" width="28.7109375" customWidth="1"/>
     <col min="34" max="34" width="27.28515625" customWidth="1"/>
